--- a/EV Charging Project/summary_MILP.xlsx
+++ b/EV Charging Project/summary_MILP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,421 +508,34 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="F2" t="n">
-        <v>537.6048589181183</v>
+        <v>3286.481594959156</v>
       </c>
       <c r="G2" t="n">
-        <v>436.3182930146774</v>
+        <v>940.1967288905349</v>
       </c>
       <c r="H2" t="n">
-        <v>81.15966323160264</v>
+        <v>28.60800225787419</v>
       </c>
       <c r="I2" t="n">
-        <v>11253.19693573809</v>
+        <v>29656.6443913849</v>
       </c>
       <c r="J2" t="n">
         <v>0.5</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="L2" t="n">
-        <v>3.074134111404419</v>
+        <v>16.28528785705566</v>
       </c>
       <c r="M2" t="n">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ev_charging_power2.xlsx</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>12</v>
-      </c>
-      <c r="E3" t="n">
-        <v>49</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1148.106708192779</v>
-      </c>
-      <c r="G3" t="n">
-        <v>783.7308401132972</v>
-      </c>
-      <c r="H3" t="n">
-        <v>68.26289181316244</v>
-      </c>
-      <c r="I3" t="n">
-        <v>23774.34691340243</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K3" t="n">
-        <v>11</v>
-      </c>
-      <c r="L3" t="n">
-        <v>5.976181745529175</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ev_charging_power3.xlsx</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>25</v>
-      </c>
-      <c r="E4" t="n">
-        <v>21</v>
-      </c>
-      <c r="F4" t="n">
-        <v>608.5488747103507</v>
-      </c>
-      <c r="G4" t="n">
-        <v>488.5303266263966</v>
-      </c>
-      <c r="H4" t="n">
-        <v>80.27791142641107</v>
-      </c>
-      <c r="I4" t="n">
-        <v>17817.58118915057</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3</v>
-      </c>
-      <c r="L4" t="n">
-        <v>4.688921928405762</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2520</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>ev_charging_power4.xlsx</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>10</v>
-      </c>
-      <c r="E5" t="n">
-        <v>75</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2218.491378501725</v>
-      </c>
-      <c r="G5" t="n">
-        <v>916.3000000000389</v>
-      </c>
-      <c r="H5" t="n">
-        <v>41.30284250276732</v>
-      </c>
-      <c r="I5" t="n">
-        <v>26464.10974160401</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K5" t="n">
-        <v>46</v>
-      </c>
-      <c r="L5" t="n">
-        <v>9.430770635604858</v>
-      </c>
-      <c r="M5" t="n">
         <v>980</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ev_charging_power5.xlsx</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>27</v>
-      </c>
-      <c r="E6" t="n">
-        <v>72</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2580.097929345054</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1397.832469088676</v>
-      </c>
-      <c r="H6" t="n">
-        <v>54.17749664422657</v>
-      </c>
-      <c r="I6" t="n">
-        <v>54105.80998835248</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>35</v>
-      </c>
-      <c r="L6" t="n">
-        <v>20.24825644493103</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ev_charging_power6.xlsx</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>45</v>
-      </c>
-      <c r="E7" t="n">
-        <v>163</v>
-      </c>
-      <c r="F7" t="n">
-        <v>4706.35398497372</v>
-      </c>
-      <c r="G7" t="n">
-        <v>3583.836833977454</v>
-      </c>
-      <c r="H7" t="n">
-        <v>76.14890094157391</v>
-      </c>
-      <c r="I7" t="n">
-        <v>119995.8568812107</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K7" t="n">
-        <v>25</v>
-      </c>
-      <c r="L7" t="n">
-        <v>75.15190410614014</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4200</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>ev_charging_power7.xlsx</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>85</v>
-      </c>
-      <c r="E8" t="n">
-        <v>289</v>
-      </c>
-      <c r="F8" t="n">
-        <v>8137.361637752827</v>
-      </c>
-      <c r="G8" t="n">
-        <v>6305.225623007581</v>
-      </c>
-      <c r="H8" t="n">
-        <v>77.48488888283943</v>
-      </c>
-      <c r="I8" t="n">
-        <v>259067.9386204472</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K8" t="n">
-        <v>42</v>
-      </c>
-      <c r="L8" t="n">
-        <v>430.4330472946167</v>
-      </c>
-      <c r="M8" t="n">
-        <v>11200</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>ev_charging_power8.xlsx</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>55</v>
-      </c>
-      <c r="E9" t="n">
-        <v>431</v>
-      </c>
-      <c r="F9" t="n">
-        <v>12906.73023186866</v>
-      </c>
-      <c r="G9" t="n">
-        <v>5144.116780839277</v>
-      </c>
-      <c r="H9" t="n">
-        <v>39.85608042025763</v>
-      </c>
-      <c r="I9" t="n">
-        <v>207643.85674005</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K9" t="n">
-        <v>206</v>
-      </c>
-      <c r="L9" t="n">
-        <v>322.4991891384125</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5600</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>ev_charging_power9.xlsx</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>80</v>
-      </c>
-      <c r="E10" t="n">
-        <v>285</v>
-      </c>
-      <c r="F10" t="n">
-        <v>8367.075538017267</v>
-      </c>
-      <c r="G10" t="n">
-        <v>6108.696029943875</v>
-      </c>
-      <c r="H10" t="n">
-        <v>73.00873527659634</v>
-      </c>
-      <c r="I10" t="n">
-        <v>251689.5502455417</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>49</v>
-      </c>
-      <c r="L10" t="n">
-        <v>484.2903990745544</v>
-      </c>
-      <c r="M10" t="n">
-        <v>8400</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>ev_charging_power10.xlsx</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>17</v>
-      </c>
-      <c r="E11" t="n">
-        <v>554</v>
-      </c>
-      <c r="F11" t="n">
-        <v>16074.59894349177</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1639.049999999887</v>
-      </c>
-      <c r="H11" t="n">
-        <v>10.19652188998158</v>
-      </c>
-      <c r="I11" t="n">
-        <v>58246.87083500485</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K11" t="n">
-        <v>525</v>
-      </c>
-      <c r="L11" t="n">
-        <v>124.5786700248718</v>
-      </c>
-      <c r="M11" t="n">
-        <v>2100</v>
       </c>
     </row>
   </sheetData>
